--- a/test.xlsx
+++ b/test.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="110">
   <si>
     <t>CONTINENT</t>
   </si>
@@ -38,9 +38,6 @@
     <t>COUNTRY</t>
   </si>
   <si>
-    <t>Africa</t>
-  </si>
-  <si>
     <t>Asia</t>
   </si>
   <si>
@@ -56,77 +53,317 @@
     <t>Australia</t>
   </si>
   <si>
-    <t>West</t>
-  </si>
-  <si>
-    <t>East</t>
-  </si>
-  <si>
-    <t>Middle</t>
-  </si>
-  <si>
-    <t>South Africa</t>
-  </si>
-  <si>
-    <t>Egypt</t>
-  </si>
-  <si>
     <t>QUESTION</t>
   </si>
   <si>
     <t>ANSWER</t>
   </si>
   <si>
-    <t>China</t>
-  </si>
-  <si>
-    <t>Syria</t>
-  </si>
-  <si>
     <t>Georgia</t>
   </si>
   <si>
-    <t>USA</t>
-  </si>
-  <si>
     <t>Canada</t>
   </si>
   <si>
     <t>Brazil</t>
   </si>
   <si>
-    <t>Europe</t>
-  </si>
-  <si>
-    <t>France</t>
-  </si>
-  <si>
-    <t>Poland</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>Yugoslavia</t>
-  </si>
-  <si>
-    <t>omg</t>
-  </si>
-  <si>
-    <t>what?</t>
-  </si>
-  <si>
-    <t>DIFFICULTY</t>
+    <t>Central</t>
+  </si>
+  <si>
+    <t>Antigua and Barbuda</t>
+  </si>
+  <si>
+    <t>what are the most popular industries in antigua and barbuda?</t>
+  </si>
+  <si>
+    <t>tourism, construction, and light manufacturing</t>
+  </si>
+  <si>
+    <t>Barbados</t>
+  </si>
+  <si>
+    <t>what is the highest point in barbados?</t>
+  </si>
+  <si>
+    <t>Mount Hillaby</t>
+  </si>
+  <si>
+    <t>Belize</t>
+  </si>
+  <si>
+    <t>is belize larger than massachusetts?</t>
+  </si>
+  <si>
+    <t>smaller</t>
+  </si>
+  <si>
+    <t>what are the geographic coordinates of canada?</t>
+  </si>
+  <si>
+    <t>60 degrees north 95 degrees west</t>
+  </si>
+  <si>
+    <t>Costa Rica</t>
+  </si>
+  <si>
+    <t>which country colonized costa rica in 1563?</t>
+  </si>
+  <si>
+    <t>spain</t>
+  </si>
+  <si>
+    <t>Cuba</t>
+  </si>
+  <si>
+    <t>what document guaranteed cuban independence from spain?</t>
+  </si>
+  <si>
+    <t>the treaty of paris</t>
+  </si>
+  <si>
+    <t>Dominica</t>
+  </si>
+  <si>
+    <t>true or false, dominica was the first caribbean island to be colonized by europeans?</t>
+  </si>
+  <si>
+    <t>Caucasus</t>
+  </si>
+  <si>
+    <t>Armenia</t>
+  </si>
+  <si>
+    <t>Which lake does armenia nearly fully surround?</t>
+  </si>
+  <si>
+    <t>True or false: Armenia was the first country to adopt christianity?</t>
+  </si>
+  <si>
+    <t>Which nation was responsible for the Armenian genocide in the early 1900’s?</t>
+  </si>
+  <si>
+    <t>Turkey</t>
+  </si>
+  <si>
+    <t>Azerbaijan</t>
+  </si>
+  <si>
+    <t>What is the official language of azerbaijan?</t>
+  </si>
+  <si>
+    <t>Azeri</t>
+  </si>
+  <si>
+    <t>The capital baku, which is located on a peninsula which juts out into what body of water?</t>
+  </si>
+  <si>
+    <t>Caspian Sea</t>
+  </si>
+  <si>
+    <t>Was azerbaijan a soviet republic?</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Which town was stalin born in?</t>
+  </si>
+  <si>
+    <t>Gori</t>
+  </si>
+  <si>
+    <t>What is georgia called in georgian?</t>
+  </si>
+  <si>
+    <t>Sakartvelo</t>
+  </si>
+  <si>
+    <t>Name an ancient greek myth took place in georgia?</t>
+  </si>
+  <si>
+    <t>Golden fleece</t>
+  </si>
+  <si>
+    <t>Dominican Republic</t>
+  </si>
+  <si>
+    <t>El Salvador</t>
+  </si>
+  <si>
+    <t>Grenada</t>
+  </si>
+  <si>
+    <t>Guatemala</t>
+  </si>
+  <si>
+    <t>Haiti</t>
+  </si>
+  <si>
+    <t>Honduras</t>
+  </si>
+  <si>
+    <t>Jamaica</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>Nicaragua</t>
+  </si>
+  <si>
+    <t>Panama</t>
+  </si>
+  <si>
+    <t>Saint Kitts and Nevis</t>
+  </si>
+  <si>
+    <t>Saint Lucia</t>
+  </si>
+  <si>
+    <t>Saint Vincent and the Grenadines</t>
+  </si>
+  <si>
+    <t>Bahamas</t>
+  </si>
+  <si>
+    <t>Trinidad and Tobago</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>Argentina</t>
+  </si>
+  <si>
+    <t>Bolivia</t>
+  </si>
+  <si>
+    <t>Chile</t>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>Ecuador</t>
+  </si>
+  <si>
+    <t>Guyana</t>
+  </si>
+  <si>
+    <t>Paraguay</t>
+  </si>
+  <si>
+    <t>Peru</t>
+  </si>
+  <si>
+    <t>Surinam</t>
+  </si>
+  <si>
+    <t>Uruguay</t>
+  </si>
+  <si>
+    <t>Venezuela</t>
+  </si>
+  <si>
+    <t>Oceania</t>
+  </si>
+  <si>
+    <t>Federated States of Micronesia</t>
+  </si>
+  <si>
+    <t>Fiji</t>
+  </si>
+  <si>
+    <t>Kiribati</t>
+  </si>
+  <si>
+    <t>Marshall Islands</t>
+  </si>
+  <si>
+    <t>Nauru</t>
+  </si>
+  <si>
+    <t>New Zealand</t>
+  </si>
+  <si>
+    <t>Palau</t>
+  </si>
+  <si>
+    <t>Papua New Guinea</t>
+  </si>
+  <si>
+    <t>Samoa</t>
+  </si>
+  <si>
+    <t>Solomon Islands</t>
+  </si>
+  <si>
+    <t>Tonga</t>
+  </si>
+  <si>
+    <t>Tuvalu</t>
+  </si>
+  <si>
+    <t>Vanuatu</t>
+  </si>
+  <si>
+    <t>Sevan</t>
+  </si>
+  <si>
+    <t>Middle east</t>
+  </si>
+  <si>
+    <t>Bahrain</t>
+  </si>
+  <si>
+    <t>What type of government does Bahrain have?</t>
+  </si>
+  <si>
+    <t>Monarchy</t>
+  </si>
+  <si>
+    <t>True or false: was bahrain one of the earliest countries to convert to islam?</t>
+  </si>
+  <si>
+    <t>What does Bahrain mean in arabic?</t>
+  </si>
+  <si>
+    <t>two seas</t>
+  </si>
+  <si>
+    <t>Iraq</t>
+  </si>
+  <si>
+    <t>What was southern mesopotamia called?</t>
+  </si>
+  <si>
+    <t>Sumer</t>
+  </si>
+  <si>
+    <t>Which two rivers create the firtle cresent?</t>
+  </si>
+  <si>
+    <t>Tigris and Euphrates</t>
+  </si>
+  <si>
+    <t>Which city in Iraq was the capital of the Abbasid caliphate until its downfall?</t>
+  </si>
+  <si>
+    <t>Baghdad</t>
+  </si>
+  <si>
+    <t>Default</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -141,6 +378,43 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="13.2"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13.2"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="13.2"/>
+      <color theme="1"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="2">
@@ -160,14 +434,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -443,13 +726,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F103"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" zoomScale="110" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection sqref="A1:E76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="84.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="46.83203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -462,276 +749,1384 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="E2" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="8" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2">
+      <c r="C25" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A40" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A41" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A42" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A43" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A44" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A45" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A46" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A47" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A48" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A49" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A50" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A51" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E52" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
+    <row r="53" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A53" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A55" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A56" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C57" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" t="s">
-        <v>25</v>
-      </c>
-      <c r="F11">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="D57" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C58" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" t="s">
-        <v>25</v>
-      </c>
-      <c r="F12">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="D58" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C59" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" t="s">
-        <v>26</v>
-      </c>
-      <c r="F13">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14" t="s">
-        <v>29</v>
-      </c>
-      <c r="F14">
-        <v>5</v>
-      </c>
+      <c r="D59" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A61" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E61" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A63" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A64" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A65" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C66" s="3"/>
+      <c r="D66" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A67" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C67" s="3"/>
+      <c r="D67" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A68" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C68" s="3"/>
+      <c r="D68" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A69" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69" s="3"/>
+      <c r="D69" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A70" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C70" s="3"/>
+      <c r="D70" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A71" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C71" s="3"/>
+      <c r="D71" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C72" s="3"/>
+      <c r="D72" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A73" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C73" s="3"/>
+      <c r="D73" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A74" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C74" s="3"/>
+      <c r="D74" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A75" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C75" s="3"/>
+      <c r="D75" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C76" s="3"/>
+      <c r="D76" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E76" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A77" s="5"/>
+      <c r="B77" s="5"/>
+      <c r="C77" s="5"/>
+      <c r="D77" s="4"/>
+      <c r="E77" s="4"/>
+    </row>
+    <row r="78" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A78" s="5"/>
+      <c r="B78" s="5"/>
+      <c r="C78" s="5"/>
+      <c r="D78" s="4"/>
+      <c r="E78" s="4"/>
+    </row>
+    <row r="79" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A79" s="5"/>
+      <c r="B79" s="5"/>
+      <c r="C79" s="5"/>
+      <c r="D79" s="4"/>
+      <c r="E79" s="4"/>
+    </row>
+    <row r="80" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A80" s="5"/>
+      <c r="B80" s="5"/>
+      <c r="C80" s="5"/>
+      <c r="D80" s="4"/>
+      <c r="E80" s="4"/>
+    </row>
+    <row r="81" spans="4:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="D81" s="4"/>
+      <c r="E81" s="4"/>
+    </row>
+    <row r="82" spans="4:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="D82" s="4"/>
+      <c r="E82" s="4"/>
+    </row>
+    <row r="83" spans="4:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="D83" s="4"/>
+      <c r="E83" s="4"/>
+    </row>
+    <row r="84" spans="4:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="D84" s="4"/>
+      <c r="E84" s="4"/>
+    </row>
+    <row r="85" spans="4:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="D85" s="4"/>
+      <c r="E85" s="4"/>
+    </row>
+    <row r="86" spans="4:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="D86" s="4"/>
+      <c r="E86" s="4"/>
+    </row>
+    <row r="87" spans="4:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="D87" s="4"/>
+      <c r="E87" s="4"/>
+    </row>
+    <row r="88" spans="4:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="D88" s="4"/>
+      <c r="E88" s="4"/>
+    </row>
+    <row r="89" spans="4:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="D89" s="4"/>
+      <c r="E89" s="4"/>
+    </row>
+    <row r="90" spans="4:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="D90" s="4"/>
+      <c r="E90" s="4"/>
+    </row>
+    <row r="91" spans="4:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="D91" s="4"/>
+      <c r="E91" s="4"/>
+    </row>
+    <row r="92" spans="4:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="D92" s="4"/>
+      <c r="E92" s="4"/>
+    </row>
+    <row r="93" spans="4:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="D93" s="4"/>
+      <c r="E93" s="4"/>
+    </row>
+    <row r="94" spans="4:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="D94" s="4"/>
+      <c r="E94" s="4"/>
+    </row>
+    <row r="95" spans="4:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="D95" s="4"/>
+      <c r="E95" s="4"/>
+    </row>
+    <row r="96" spans="4:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="D96" s="4"/>
+      <c r="E96" s="4"/>
+    </row>
+    <row r="97" spans="4:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="D97" s="4"/>
+      <c r="E97" s="4"/>
+    </row>
+    <row r="98" spans="4:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="D98" s="4"/>
+      <c r="E98" s="4"/>
+    </row>
+    <row r="99" spans="4:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="D99" s="4"/>
+      <c r="E99" s="4"/>
+    </row>
+    <row r="100" spans="4:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="D100" s="4"/>
+      <c r="E100" s="4"/>
+    </row>
+    <row r="101" spans="4:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="D101" s="4"/>
+      <c r="E101" s="4"/>
+    </row>
+    <row r="102" spans="4:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="D102" s="4"/>
+      <c r="E102" s="4"/>
+    </row>
+    <row r="103" spans="4:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="D103" s="4"/>
+      <c r="E103" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/test.xlsx
+++ b/test.xlsx
@@ -77,9 +77,6 @@
     <t>what are the most popular industries in antigua and barbuda?</t>
   </si>
   <si>
-    <t>tourism, construction, and light manufacturing</t>
-  </si>
-  <si>
     <t>Barbados</t>
   </si>
   <si>
@@ -357,6 +354,9 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>tourism / construction / manufacturing</t>
   </si>
 </sst>
 </file>
@@ -729,7 +729,7 @@
   <dimension ref="A1:F103"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" zoomScale="110" workbookViewId="0">
-      <selection sqref="A1:E76"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -770,7 +770,7 @@
         <v>15</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>16</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -781,13 +781,13 @@
         <v>13</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -798,13 +798,13 @@
         <v>13</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -818,10 +818,10 @@
         <v>11</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -832,13 +832,13 @@
         <v>13</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -849,13 +849,13 @@
         <v>13</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -866,10 +866,10 @@
         <v>13</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="E8" s="2" t="b">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>13</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
@@ -896,13 +896,13 @@
         <v>13</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -913,13 +913,13 @@
         <v>13</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -930,13 +930,13 @@
         <v>13</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -947,13 +947,13 @@
         <v>13</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -964,13 +964,13 @@
         <v>13</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -981,13 +981,13 @@
         <v>13</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -998,13 +998,13 @@
         <v>5</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -1015,13 +1015,13 @@
         <v>13</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -1032,13 +1032,13 @@
         <v>13</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -1049,13 +1049,13 @@
         <v>13</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -1066,13 +1066,13 @@
         <v>13</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -1083,13 +1083,13 @@
         <v>13</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -1100,13 +1100,13 @@
         <v>13</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -1117,13 +1117,13 @@
         <v>13</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -1134,13 +1134,13 @@
         <v>5</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -1151,13 +1151,13 @@
         <v>6</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -1168,13 +1168,13 @@
         <v>6</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -1188,10 +1188,10 @@
         <v>12</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -1202,13 +1202,13 @@
         <v>6</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -1219,13 +1219,13 @@
         <v>6</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -1236,13 +1236,13 @@
         <v>6</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -1253,13 +1253,13 @@
         <v>6</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -1270,13 +1270,13 @@
         <v>6</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -1287,13 +1287,13 @@
         <v>6</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -1304,13 +1304,13 @@
         <v>6</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -1321,13 +1321,13 @@
         <v>6</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -1338,13 +1338,13 @@
         <v>6</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -1358,10 +1358,10 @@
         <v>7</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -1369,16 +1369,16 @@
         <v>7</v>
       </c>
       <c r="B38" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C38" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C38" s="3" t="s">
-        <v>80</v>
-      </c>
       <c r="D38" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -1386,16 +1386,16 @@
         <v>7</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -1403,16 +1403,16 @@
         <v>7</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -1420,16 +1420,16 @@
         <v>7</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -1437,16 +1437,16 @@
         <v>7</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -1454,16 +1454,16 @@
         <v>7</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -1471,16 +1471,16 @@
         <v>7</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -1488,16 +1488,16 @@
         <v>7</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -1505,16 +1505,16 @@
         <v>7</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -1522,16 +1522,16 @@
         <v>7</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -1539,16 +1539,16 @@
         <v>7</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -1556,16 +1556,16 @@
         <v>7</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -1573,16 +1573,16 @@
         <v>7</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -1590,16 +1590,16 @@
         <v>3</v>
       </c>
       <c r="B51" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C51" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="D51" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D51" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="E51" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -1607,13 +1607,13 @@
         <v>3</v>
       </c>
       <c r="B52" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C52" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C52" s="3" t="s">
-        <v>34</v>
-      </c>
       <c r="D52" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E52" s="2" t="b">
         <v>1</v>
@@ -1624,16 +1624,16 @@
         <v>3</v>
       </c>
       <c r="B53" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C53" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C53" s="3" t="s">
-        <v>34</v>
-      </c>
       <c r="D53" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E53" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -1641,16 +1641,16 @@
         <v>3</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C54" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D54" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D54" s="2" t="s">
+      <c r="E54" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -1658,16 +1658,16 @@
         <v>3</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D55" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E55" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -1675,16 +1675,16 @@
         <v>3</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D56" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E56" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -1692,16 +1692,16 @@
         <v>3</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D57" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E57" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -1709,16 +1709,16 @@
         <v>3</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D58" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E58" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -1726,16 +1726,16 @@
         <v>3</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D59" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E59" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -1743,16 +1743,16 @@
         <v>3</v>
       </c>
       <c r="B60" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C60" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C60" s="3" t="s">
+      <c r="D60" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D60" s="2" t="s">
+      <c r="E60" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -1760,13 +1760,13 @@
         <v>3</v>
       </c>
       <c r="B61" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C61" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C61" s="3" t="s">
-        <v>95</v>
-      </c>
       <c r="D61" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E61" s="2" t="b">
         <v>1</v>
@@ -1777,16 +1777,16 @@
         <v>3</v>
       </c>
       <c r="B62" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C62" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C62" s="3" t="s">
-        <v>95</v>
-      </c>
       <c r="D62" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E62" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -1794,16 +1794,16 @@
         <v>3</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C63" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D63" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D63" s="2" t="s">
+      <c r="E63" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -1811,16 +1811,16 @@
         <v>3</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D64" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E64" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -1828,16 +1828,16 @@
         <v>3</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D65" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E65" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -1845,14 +1845,14 @@
         <v>3</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C66" s="3"/>
       <c r="D66" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -1860,14 +1860,14 @@
         <v>3</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -1875,14 +1875,14 @@
         <v>3</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C68" s="3"/>
       <c r="D68" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -1890,14 +1890,14 @@
         <v>3</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C69" s="3"/>
       <c r="D69" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -1905,14 +1905,14 @@
         <v>3</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C70" s="3"/>
       <c r="D70" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -1920,14 +1920,14 @@
         <v>3</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C71" s="3"/>
       <c r="D71" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -1935,14 +1935,14 @@
         <v>3</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C72" s="3"/>
       <c r="D72" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -1950,14 +1950,14 @@
         <v>3</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C73" s="3"/>
       <c r="D73" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -1965,14 +1965,14 @@
         <v>3</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C74" s="3"/>
       <c r="D74" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -1980,14 +1980,14 @@
         <v>3</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C75" s="3"/>
       <c r="D75" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -1995,14 +1995,14 @@
         <v>3</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C76" s="3"/>
       <c r="D76" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E76" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="17" x14ac:dyDescent="0.2">
